--- a/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
+++ b/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
+++ b/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
+++ b/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
+++ b/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
+++ b/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -331,7 +331,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -674,7 +674,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
+++ b/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -331,7 +331,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
 </t>
   </si>
   <si>
@@ -674,7 +674,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.23828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
+++ b/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -331,7 +331,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -674,7 +674,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
+++ b/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
+++ b/main/ig/StructureDefinition-tddui-careplan-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
